--- a/outputs/MIAMI4.xlsx
+++ b/outputs/MIAMI4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a button labeled "Assignment 7" on the right side under the "Coming Up" section. This is directly related to Abi's goal of submitting Assignment 7. Given Abi's motivation to complete tasks and her comprehensive information processing style, she would recognize that finding Assignment 7 is a necessary step toward submitting it.</t>
+Why: The page clearly shows "Assignment 7" on the right side under "Coming Up," which directly aligns with Abi's goal of finding Assignment 7. This is a straightforward step toward achieving the overall use case, and the information is prominently displayed, making it easy for Abi to identify and proceed.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This aligns with Abi's motivation to complete her task and her comprehensive information processing style. The page provides a straightforward and unambiguous action for Abi to take, making it clear that clicking the link will lead her to Assignment 7.</t>
+Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This makes it straightforward for Abi to understand that clicking this link is the next step toward finding Assignment 7. The page provides clear and direct information, aligning with Abi's comprehensive information processing style and motivation to complete the task.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides a link to an external site and a button to load the assignment in a new browser window. This might be confusing for Abi, as it is not immediately clear what the next step should be. The page does not provide comprehensive information directly; instead, it requires Abi to take additional steps (clicking a link or button) without clear guidance on what to expect. Given Abi's low computer self-efficacy and preference for comprehensive information, this could hinder her confidence and understanding of whether she is making progress toward her goal.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7, including a link to an external site and a button to load the assignment in a new window. However, the page layout is cluttered and the instructions are not very clear. Abi might struggle to understand that she needs to click the external link or the "Load Assignment 7 in a new window" button to proceed. This lack of clear guidance and the need to interact with an external site could confuse Abi, who prefers comprehensive and straightforward information. Additionally, Abi's low computer self-efficacy might make her hesitant to click on links or buttons without clear instructions on what they will do.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page provides a link to an external site (GitHub) without clear instructions on what to expect after clicking the link. Given Abi's low computer self-efficacy, she might be hesitant to click on an external link without knowing what it will lead to. Additionally, Abi prefers process-oriented learning and clear step-by-step instructions, which are not provided here. This lack of guidance could make her unsure about taking this action.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page provides a link to an external site (GitHub) for Project 7, but it does not offer clear instructions on what Abi should expect after clicking the link or how to proceed once on the external site. Given Abi's preference for comprehensive information and step-by-step guidance, the lack of detailed instructions may cause confusion. Additionally, Abi's low computer self-efficacy might make her hesitant to click on an external link without knowing exactly what it will do. This uncertainty and lack of clear guidance do not align with Abi's learning style, which prefers process-oriented learning.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the GitHub link, Abi lands on a page that confirms she has accepted the assignment and provides a link to the assignment repository. However, the page does not provide comprehensive information about what to do next or how to proceed with submitting the assignment. Given Abi's preference for comprehensive information and her low computer self-efficacy, she might not feel confident that she is making progress toward her goal or know what steps to take next. The page lacks clear, step-by-step instructions that Abi relies on to feel assured she is on the right track.</t>
+Why: After clicking the GitHub link, Abi lands on a page that confirms she has accepted the assignment and provides a link to her assignment repository. However, the page does not provide comprehensive information on what to do next or how to proceed with the assignment. Abi might not feel confident that she is making progress toward her goal due to the lack of detailed instructions and guidance. This lack of clarity and the need to navigate an external site without step-by-step instructions do not align with Abi's preference for comprehensive information and her low computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -471,43 +471,43 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page does not provide any direct indication or link to Gradescope for submitting the assignment. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, with her low computer self-efficacy, Abi might not feel confident in making the connection on her own without explicit guidance. Therefore, she might not think of going to Gradescope as a step toward submitting Assignment 7 based on the information provided on this page.</t>
+Why: The page does not provide any direct information or links related to Gradescope or submitting assignments there. Abi, who prefers comprehensive information and clear guidance, would not have enough context from this page to think of going to Gradescope as a step toward submitting Assignment 7. Additionally, without explicit instructions or a clear path, Abi's low computer self-efficacy might make her hesitant to take actions that are not clearly indicated.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page does not provide any direct information or indication that clicking on the "Assignment 7" link under the "Coming Up" section will lead Abi to Gradescope for submission. Abi, who prefers comprehensive information and clear guidance, might not know that this action is necessary to achieve her goal of submitting the assignment. Additionally, without explicit instructions or a clear path, Abi's low computer self-efficacy might make her hesitant to take actions that are not clearly indicated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7 and includes a link to an external site (GitHub) and a button to load the assignment in a new window. However, there is no mention of Gradescope or instructions on how to submit the assignment. Abi, who prefers comprehensive information and clear guidance, might not know that she is making progress toward her goal of submitting the assignment. The lack of explicit instructions and the need to navigate an external site without clear guidance do not align with Abi's preference for comprehensive information and her low computer self-efficacy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides a button labeled "Load Assignment 7 in a new window," but it does not clearly indicate that this action will lead Abi to Gradescope for submission. Abi, who prefers comprehensive information and clear guidance, might not understand that clicking this button is necessary to achieve her goal of submitting the assignment. Additionally, without explicit instructions or a clear path, Abi's low computer self-efficacy might make her hesitant to take actions that are not clearly indicated. The lack of clear guidance and the need to navigate an external site without knowing what to expect do not align with Abi's preference for comprehensive information and her low computer self-efficacy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link under the "Coming Up" section is clearly labeled and prominently displayed. Given Abi's motivation to complete her task and her comprehensive information processing style, she would recognize that clicking on the "Assignment 7" link is a necessary step toward submitting the assignment. The page provides a straightforward and unambiguous action for Abi to take, making it clear that clicking the link will lead her to the relevant assignment details.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides a link to an external site (GitHub) and a button to load the assignment in a new browser window. However, the page does not provide clear instructions or information about submitting the assignment on Gradescope. Given Abi's comprehensive information processing style, she would need explicit guidance on the steps to submit the assignment. Additionally, with her low computer self-efficacy, Abi might not feel confident that she is making progress toward her goal without clear, step-by-step instructions. The page lacks the necessary information to assure Abi that she is on the right track and making progress toward submitting her assignment.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides a button labeled "Load Assignment 7 in a new window," but it does not clearly indicate that this action will lead to the submission process on Gradescope. Given Abi's comprehensive information processing style, she would need explicit instructions to understand that clicking this button is the correct step toward submitting her assignment. Additionally, with her low computer self-efficacy, Abi might be hesitant to click the button without knowing exactly what will happen next. The lack of clear guidance and information on this page could make Abi unsure about taking this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including "Project 7." The page provides clear information about the assignment, including its due date and submission status. Given Abi's motivation to complete her task and her comprehensive information processing style, she will recognize that she is on the right track and making progress toward submitting her assignment. The page provides the necessary information for Abi to proceed with the submission, aligning with her need for comprehensive information.</t>
+Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including Project 7. The page provides clear information about the assignment, including its due date and submission status. This aligns with Abi's goal of submitting Assignment 7 and provides her with the necessary information to proceed. The clear layout and comprehensive details help Abi understand that she is making progress toward her goal, aligning with her motivation and preference for comprehensive information.</t>
         </is>
       </c>
     </row>
